--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,97 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="7" r:id="rId1"/>
-    <sheet name="login" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="recharge" sheetId="3" r:id="rId4"/>
-    <sheet name="invest" sheetId="4" r:id="rId5"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>case_id</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
     <t>actual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13800000000","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>密码为空，注册失败</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15800447656","pwd":""}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>手机号码为空，注册失败</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>重复注册</t>
   </si>
   <si>
     <t>正常登录</t>
   </si>
   <si>
-    <t>get</t>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15810447656","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>输入错误的密码</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15800447656","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>不输入手机号码</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
     <t>{'data': None, 'msg': '登陆成功', 'status': 0, 'code': '10001'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"15800447656","pwd":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入错误的密码</t>
-  </si>
-  <si>
-    <t>post</t>
+  </si>
+  <si>
+    <t>正常充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15800447656","amount":"100"}</t>
   </si>
   <si>
     <t>{'data': None, 'msg': '用户名或密码错误', 'status': 0, 'code': '20111'}</t>
   </si>
   <si>
-    <t>{"mobilephone":"15800447656","pwd":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入密码</t>
+    <t>充值手机号码不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"12345678985","amount":""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
   </si>
   <si>
     <t>{'data': None, 'msg': '密码不能为空', 'status': 0, 'code': '20103'}</t>
   </si>
   <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>充值金额小数点大于两位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"12345678985","amount":"33.2222"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
   </si>
   <si>
     <t>check_sql</t>
@@ -100,9 +164,6 @@
     <t>http_method</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>TestResult</t>
   </si>
   <si>
@@ -124,9 +185,6 @@
     <t>{"sql":"select LeaveAmount from member where MobilePhone=${normal_tel}"}</t>
   </si>
   <si>
-    <t>正常充值</t>
-  </si>
-  <si>
     <t>{'status': 1, 'code': '10001', 'data': {'id': 27432, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090552', 'leaveamount': '122356.00', 'type': '1', 'regtime': '2018-09-01 15:20:49.0'}, 'msg': '充值成功'}</t>
   </si>
   <si>
@@ -158,202 +216,94 @@
   </si>
   <si>
     <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>不输入手机号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15810447656","pwd":"123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空，注册失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码为空，注册失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15800447656","pwd":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"13800000000","pwd":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常充值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值手机号码不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值金额小数点大于两位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15800447656","amount":"100"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"12345678985","amount":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"12345678985","amount":"33.2222"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -384,66 +334,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -733,36 +671,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="63.25" customWidth="1"/>
-    <col min="4" max="4" width="59.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="91.875" customWidth="1"/>
-    <col min="7" max="7" width="64.625" customWidth="1"/>
-    <col min="8" max="8" width="99.25" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="10.21875"/>
+    <col customWidth="1" max="2" min="2" width="29"/>
+    <col customWidth="1" max="3" min="3" width="47"/>
+    <col customWidth="1" max="4" min="4" width="42.5546875"/>
+    <col customWidth="1" max="5" min="5" width="13.88671875"/>
+    <col customWidth="1" max="6" min="6" width="91.88671875"/>
+    <col customWidth="1" max="7" min="7" width="42"/>
+    <col customWidth="1" max="8" min="8" width="53.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="19.2" r="1" spans="1:8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -777,135 +720,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+    <row customHeight="1" ht="16.8" r="2" spans="1:8">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.4" r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView workbookViewId="0" zoomScale="71" zoomScaleNormal="71">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="83" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="94" customWidth="1"/>
-    <col min="7" max="7" width="126.875" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.109375"/>
+    <col customWidth="1" max="2" min="2" width="26"/>
+    <col customWidth="1" max="3" min="3" width="41.44140625"/>
+    <col customWidth="1" max="4" min="4" width="83"/>
+    <col customWidth="1" max="5" min="5" width="26.6640625"/>
+    <col customWidth="1" max="6" min="6" width="126.33203125"/>
+    <col customWidth="1" max="7" min="7" width="126.88671875"/>
+    <col customWidth="1" max="8" min="8" width="21.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27.6" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -920,149 +880,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="25.8" r="2" spans="1:8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="3" spans="1:8">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="4" spans="1:8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="5" spans="1:8">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="47.125" customWidth="1"/>
-    <col min="4" max="4" width="85.75" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="45.75" customWidth="1"/>
-    <col min="8" max="8" width="100.75" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="17.6640625"/>
+    <col customWidth="1" max="2" min="2" width="43.77734375"/>
+    <col customWidth="1" max="3" min="3" width="47.109375"/>
+    <col customWidth="1" max="4" min="4" width="85.77734375"/>
+    <col customWidth="1" max="5" min="5" width="19.77734375"/>
+    <col customWidth="1" max="6" min="6" width="30.33203125"/>
+    <col customWidth="1" max="7" min="7" width="45.77734375"/>
+    <col customWidth="1" max="8" min="8" width="100.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="27.6" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1077,324 +1040,329 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="25.8" r="2" spans="1:8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="3" spans="1:8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="4" spans="1:8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.8" r="5" spans="1:8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="3" spans="1:10">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="n">
         <v>10001</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>20115</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6">
-        <v>20115</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="6" t="n">
         <v>20117</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="8" t="n"/>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>20116</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="B6" r:id="rId3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="B2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink ref="B6" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>case_id</t>
   </si>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"${register}","pwd":"${pwd}"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,47 +196,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"mobilephone":"","pwd":"12345678"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15810447656","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","pwd":"${pwd}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"mobilephone":"15800447656","pwd":""}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"","pwd":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15810447656","amount":"100"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","pwd":"${pwd}"}</t>
+    <t>{"mobilephone":"${register}","pwd":"123456"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,16 +710,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="63.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="91.88671875" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
@@ -759,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -768,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>14</v>
@@ -785,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>17</v>
@@ -811,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
@@ -863,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -887,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -916,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1038,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -1056,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
@@ -1077,7 +1081,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1159,7 +1163,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1174,8 @@
     <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1186,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
@@ -1209,10 +1215,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -1238,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -1267,7 +1273,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -1293,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
@@ -1319,7 +1325,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>

--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="recharge2" sheetId="4" r:id="rId4"/>
     <sheet name="invest" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>case_id</t>
   </si>
@@ -139,9 +140,6 @@
     <t>充值金额小数点大于两位</t>
   </si>
   <si>
-    <t>check_sql</t>
-  </si>
-  <si>
     <t>TestResult</t>
   </si>
   <si>
@@ -151,9 +149,6 @@
     <t>{'status': 1, 'code': '10001', 'data': {'id': 27432, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '15096090552', 'leaveamount': '122356.00', 'type': '1', 'regtime': '2018-09-01 15:20:49.0'}, 'msg': '充值成功'}</t>
   </si>
   <si>
-    <t>数据库检查通过</t>
-  </si>
-  <si>
     <t>不输入金额</t>
   </si>
   <si>
@@ -180,71 +175,199 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"12345678"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15810447656","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15800447656","pwd":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${register}","pwd":"123456"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${loan_member_id}","title":"试试人品行不行，借个2W玩玩","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员加标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人投资不输入金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人投资输入负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员，可以登录后台系统，进行创建标的，审核标的，查看标的列表等操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资者，可以登录前台系统，进行充值，提现，投资，查看投资记录，流水记录等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人，通常借款人信息由管理员录入到后台管理系统，根据借款人借款需求来创建标的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"-100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>check sql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15810447656","amount":"100"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","pwd":"${pwd}"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"-1000"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"1000.987"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"15800447656","pwd":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${register}","pwd":"123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
+    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +525,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -772,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>14</v>
@@ -789,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>17</v>
@@ -815,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
@@ -868,7 +997,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -891,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -920,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1042,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -1060,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
@@ -1078,10 +1207,10 @@
         <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1105,7 +1234,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>35</v>
@@ -1132,10 +1261,10 @@
         <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
@@ -1160,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1175,10 +1304,9 @@
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1192,22 +1320,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1215,10 +1340,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -1227,13 +1352,13 @@
         <v>10001</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1241,10 +1366,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -1253,27 +1378,24 @@
         <v>10001</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -1282,24 +1404,24 @@
         <v>20115</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
@@ -1308,33 +1430,33 @@
         <v>20117</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6">
-        <v>20116</v>
+        <v>10001</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
@@ -1343,19 +1465,276 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="97.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7">
+        <v>11003</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7">
+        <v>11007</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
